--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 CCC Report-2.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 CCC Report-2.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based，但切圖未提供 hints.page 故 evidence.page=null。文件主要語言為中文。typical 容量與能量未在圖片中提供，切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based。所有欄位值均來自對應切圖，因無 Spec.hints 提供頁碼，故 evidence.page=null。typical 容量與能量文件中未提供，切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>

--- a/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 CCC Report-2.xlsx
+++ b/output/excel/single_UX8407SYS UV8407LCD 4S1P ATL3174(4236A5) C41N2503 CCC Report-2.xlsx
@@ -537,7 +537,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>頁碼採絕對 1-based。所有欄位值均來自對應切圖，因無 Spec.hints 提供頁碼，故 evidence.page=null。typical 容量與能量文件中未提供，切圖與 hints 搜尋均未獲值。</t>
+          <t>頁碼採絕對 1-based，但本次所有欄位來自切圖，無法確定實際頁碼，故 evidence.page=null。文件主要語言為中文，未提供 typical 容量與典型電池容量，切圖與 hints 搜尋均未獲值。</t>
         </is>
       </c>
     </row>
